--- a/po_analysis_by_asin/B0C8ZLMKP9_po_data.xlsx
+++ b/po_analysis_by_asin/B0C8ZLMKP9_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,17 +452,145 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>750</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45306</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B3" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B19" t="n">
         <v>330</v>
       </c>
     </row>
@@ -477,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,9 +627,57 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B2" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45169.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45199.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B8" t="n">
         <v>1080</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0C8ZLMKP9_po_data.xlsx
+++ b/po_analysis_by_asin/B0C8ZLMKP9_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45116.99999999999</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>60</v>
@@ -460,137 +460,129 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45123.99999999999</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45130.99999999999</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45151.99999999999</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>230</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45158.99999999999</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45172.99999999999</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>80</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45186.99999999999</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>320</v>
+        <v>520</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45200.99999999999</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>520</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45207.99999999999</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>330</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45214.99999999999</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45221.99999999999</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>150</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45235.99999999999</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45242.99999999999</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>120</v>
+        <v>470</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45249.99999999999</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>470</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45256.99999999999</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>30</v>
+        <v>740</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45277.99999999999</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>740</v>
+        <v>750</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45298.99999999999</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45312.99999999999</v>
-      </c>
-      <c r="B19" t="n">
         <v>330</v>
       </c>
     </row>
@@ -630,7 +622,7 @@
         <v>45138.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">

--- a/po_analysis_by_asin/B0C8ZLMKP9_po_data.xlsx
+++ b/po_analysis_by_asin/B0C8ZLMKP9_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -613,7 +614,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -671,6 +672,397 @@
       </c>
       <c r="B8" t="n">
         <v>1080</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>35</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-211.7023266504851</v>
+      </c>
+      <c r="D2" t="n">
+        <v>270.9751280373401</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>52</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-188.090583239742</v>
+      </c>
+      <c r="D3" t="n">
+        <v>304.5553081863507</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>104</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-146.2514041096101</v>
+      </c>
+      <c r="D4" t="n">
+        <v>349.1564938416538</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>121</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-144.424632179195</v>
+      </c>
+      <c r="D5" t="n">
+        <v>363.7406560796225</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>155</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-94.09424451181813</v>
+      </c>
+      <c r="D6" t="n">
+        <v>399.9187396277546</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>189</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-35.95596459945347</v>
+      </c>
+      <c r="D7" t="n">
+        <v>431.2013522860864</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>223</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-14.36854128795266</v>
+      </c>
+      <c r="D8" t="n">
+        <v>477.3652020660953</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>241</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-24.2330783433521</v>
+      </c>
+      <c r="D9" t="n">
+        <v>464.9638265902126</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>258</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8.39858420620682</v>
+      </c>
+      <c r="D10" t="n">
+        <v>508.4214054391298</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>275</v>
+      </c>
+      <c r="C11" t="n">
+        <v>29.04215644670952</v>
+      </c>
+      <c r="D11" t="n">
+        <v>520.0354578191016</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>309</v>
+      </c>
+      <c r="C12" t="n">
+        <v>70.86967278962966</v>
+      </c>
+      <c r="D12" t="n">
+        <v>531.7190427461443</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>326</v>
+      </c>
+      <c r="C13" t="n">
+        <v>102.6086794272301</v>
+      </c>
+      <c r="D13" t="n">
+        <v>562.9627597786349</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>343</v>
+      </c>
+      <c r="C14" t="n">
+        <v>95.06168800707232</v>
+      </c>
+      <c r="D14" t="n">
+        <v>591.8639738495654</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>360</v>
+      </c>
+      <c r="C15" t="n">
+        <v>105.1769924946073</v>
+      </c>
+      <c r="D15" t="n">
+        <v>599.811972307598</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>412</v>
+      </c>
+      <c r="C16" t="n">
+        <v>161.5560599960373</v>
+      </c>
+      <c r="D16" t="n">
+        <v>654.899484228986</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>463</v>
+      </c>
+      <c r="C17" t="n">
+        <v>202.2242024584393</v>
+      </c>
+      <c r="D17" t="n">
+        <v>703.4751738352262</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>498</v>
+      </c>
+      <c r="C18" t="n">
+        <v>238.0010009164325</v>
+      </c>
+      <c r="D18" t="n">
+        <v>759.5036250157854</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>515</v>
+      </c>
+      <c r="C19" t="n">
+        <v>257.5877330533106</v>
+      </c>
+      <c r="D19" t="n">
+        <v>743.5168936530084</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>532</v>
+      </c>
+      <c r="C20" t="n">
+        <v>297.8846076262525</v>
+      </c>
+      <c r="D20" t="n">
+        <v>764.3024886148546</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>549</v>
+      </c>
+      <c r="C21" t="n">
+        <v>295.9054594327412</v>
+      </c>
+      <c r="D21" t="n">
+        <v>801.6367200807214</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>566</v>
+      </c>
+      <c r="C22" t="n">
+        <v>317.2224734509805</v>
+      </c>
+      <c r="D22" t="n">
+        <v>811.5431789081223</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>583</v>
+      </c>
+      <c r="C23" t="n">
+        <v>340.2754510910459</v>
+      </c>
+      <c r="D23" t="n">
+        <v>839.7701283998335</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>600</v>
+      </c>
+      <c r="C24" t="n">
+        <v>357.8326749970553</v>
+      </c>
+      <c r="D24" t="n">
+        <v>821.8973503035106</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>617</v>
+      </c>
+      <c r="C25" t="n">
+        <v>374.9781712797485</v>
+      </c>
+      <c r="D25" t="n">
+        <v>865.8198876954895</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>635</v>
+      </c>
+      <c r="C26" t="n">
+        <v>388.5916076296653</v>
+      </c>
+      <c r="D26" t="n">
+        <v>870.1230282341028</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0C8ZLMKP9_po_data.xlsx
+++ b/po_analysis_by_asin/B0C8ZLMKP9_po_data.xlsx
@@ -685,7 +685,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -704,16 +704,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -722,12 +712,6 @@
       <c r="B2" t="n">
         <v>35</v>
       </c>
-      <c r="C2" t="n">
-        <v>-211.7023266504851</v>
-      </c>
-      <c r="D2" t="n">
-        <v>270.9751280373401</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -736,12 +720,6 @@
       <c r="B3" t="n">
         <v>52</v>
       </c>
-      <c r="C3" t="n">
-        <v>-188.090583239742</v>
-      </c>
-      <c r="D3" t="n">
-        <v>304.5553081863507</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -750,12 +728,6 @@
       <c r="B4" t="n">
         <v>104</v>
       </c>
-      <c r="C4" t="n">
-        <v>-146.2514041096101</v>
-      </c>
-      <c r="D4" t="n">
-        <v>349.1564938416538</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -764,12 +736,6 @@
       <c r="B5" t="n">
         <v>121</v>
       </c>
-      <c r="C5" t="n">
-        <v>-144.424632179195</v>
-      </c>
-      <c r="D5" t="n">
-        <v>363.7406560796225</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -778,12 +744,6 @@
       <c r="B6" t="n">
         <v>155</v>
       </c>
-      <c r="C6" t="n">
-        <v>-94.09424451181813</v>
-      </c>
-      <c r="D6" t="n">
-        <v>399.9187396277546</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -792,12 +752,6 @@
       <c r="B7" t="n">
         <v>189</v>
       </c>
-      <c r="C7" t="n">
-        <v>-35.95596459945347</v>
-      </c>
-      <c r="D7" t="n">
-        <v>431.2013522860864</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -806,12 +760,6 @@
       <c r="B8" t="n">
         <v>223</v>
       </c>
-      <c r="C8" t="n">
-        <v>-14.36854128795266</v>
-      </c>
-      <c r="D8" t="n">
-        <v>477.3652020660953</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -820,12 +768,6 @@
       <c r="B9" t="n">
         <v>241</v>
       </c>
-      <c r="C9" t="n">
-        <v>-24.2330783433521</v>
-      </c>
-      <c r="D9" t="n">
-        <v>464.9638265902126</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -834,12 +776,6 @@
       <c r="B10" t="n">
         <v>258</v>
       </c>
-      <c r="C10" t="n">
-        <v>8.39858420620682</v>
-      </c>
-      <c r="D10" t="n">
-        <v>508.4214054391298</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -848,12 +784,6 @@
       <c r="B11" t="n">
         <v>275</v>
       </c>
-      <c r="C11" t="n">
-        <v>29.04215644670952</v>
-      </c>
-      <c r="D11" t="n">
-        <v>520.0354578191016</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -862,12 +792,6 @@
       <c r="B12" t="n">
         <v>309</v>
       </c>
-      <c r="C12" t="n">
-        <v>70.86967278962966</v>
-      </c>
-      <c r="D12" t="n">
-        <v>531.7190427461443</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -876,12 +800,6 @@
       <c r="B13" t="n">
         <v>326</v>
       </c>
-      <c r="C13" t="n">
-        <v>102.6086794272301</v>
-      </c>
-      <c r="D13" t="n">
-        <v>562.9627597786349</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -890,12 +808,6 @@
       <c r="B14" t="n">
         <v>343</v>
       </c>
-      <c r="C14" t="n">
-        <v>95.06168800707232</v>
-      </c>
-      <c r="D14" t="n">
-        <v>591.8639738495654</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -904,12 +816,6 @@
       <c r="B15" t="n">
         <v>360</v>
       </c>
-      <c r="C15" t="n">
-        <v>105.1769924946073</v>
-      </c>
-      <c r="D15" t="n">
-        <v>599.811972307598</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -918,12 +824,6 @@
       <c r="B16" t="n">
         <v>412</v>
       </c>
-      <c r="C16" t="n">
-        <v>161.5560599960373</v>
-      </c>
-      <c r="D16" t="n">
-        <v>654.899484228986</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -932,12 +832,6 @@
       <c r="B17" t="n">
         <v>463</v>
       </c>
-      <c r="C17" t="n">
-        <v>202.2242024584393</v>
-      </c>
-      <c r="D17" t="n">
-        <v>703.4751738352262</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -946,12 +840,6 @@
       <c r="B18" t="n">
         <v>498</v>
       </c>
-      <c r="C18" t="n">
-        <v>238.0010009164325</v>
-      </c>
-      <c r="D18" t="n">
-        <v>759.5036250157854</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -960,12 +848,6 @@
       <c r="B19" t="n">
         <v>515</v>
       </c>
-      <c r="C19" t="n">
-        <v>257.5877330533106</v>
-      </c>
-      <c r="D19" t="n">
-        <v>743.5168936530084</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -974,12 +856,6 @@
       <c r="B20" t="n">
         <v>532</v>
       </c>
-      <c r="C20" t="n">
-        <v>297.8846076262525</v>
-      </c>
-      <c r="D20" t="n">
-        <v>764.3024886148546</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -988,12 +864,6 @@
       <c r="B21" t="n">
         <v>549</v>
       </c>
-      <c r="C21" t="n">
-        <v>295.9054594327412</v>
-      </c>
-      <c r="D21" t="n">
-        <v>801.6367200807214</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1002,12 +872,6 @@
       <c r="B22" t="n">
         <v>566</v>
       </c>
-      <c r="C22" t="n">
-        <v>317.2224734509805</v>
-      </c>
-      <c r="D22" t="n">
-        <v>811.5431789081223</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1016,12 +880,6 @@
       <c r="B23" t="n">
         <v>583</v>
       </c>
-      <c r="C23" t="n">
-        <v>340.2754510910459</v>
-      </c>
-      <c r="D23" t="n">
-        <v>839.7701283998335</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1030,12 +888,6 @@
       <c r="B24" t="n">
         <v>600</v>
       </c>
-      <c r="C24" t="n">
-        <v>357.8326749970553</v>
-      </c>
-      <c r="D24" t="n">
-        <v>821.8973503035106</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1044,12 +896,6 @@
       <c r="B25" t="n">
         <v>617</v>
       </c>
-      <c r="C25" t="n">
-        <v>374.9781712797485</v>
-      </c>
-      <c r="D25" t="n">
-        <v>865.8198876954895</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1057,12 +903,6 @@
       </c>
       <c r="B26" t="n">
         <v>635</v>
-      </c>
-      <c r="C26" t="n">
-        <v>388.5916076296653</v>
-      </c>
-      <c r="D26" t="n">
-        <v>870.1230282341028</v>
       </c>
     </row>
   </sheetData>
